--- a/Database/Finalize logic tree/Toyota_Camry_Coolant leak.xlsx
+++ b/Database/Finalize logic tree/Toyota_Camry_Coolant leak.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\Shreyash_files\Projects\Amberflux RaH Project\Database\Finalize logic tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9436781-051D-4B2F-8124-E3F546684D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D149BFF5-239F-44DB-BD97-9E7DFDA392C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7764" yWindow="0" windowWidth="16500" windowHeight="12360" xr2:uid="{D89A717F-1663-452D-8AF5-C4C50CA26B09}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D89A717F-1663-452D-8AF5-C4C50CA26B09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Node1</t>
   </si>
@@ -475,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC40E2C-CFF6-4E0B-B387-CEFB176DB7AB}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,32 +554,32 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
@@ -587,31 +587,53 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="360" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="360" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
